--- a/三字经拼音版(打印版共8页).xlsx
+++ b/三字经拼音版(打印版共8页).xlsx
@@ -10,7 +10,7 @@
     <sheet name="三字经拼音版" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">三字经拼音版!$A$1:$P$192</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">三字经拼音版!$A$1:$Q$192</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -3919,67 +3919,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -4302,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="Q185" sqref="Q185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -4312,7 +4252,8 @@
     <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
     <col min="5" max="7" width="8.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="4" customWidth="1"/>
-    <col min="9" max="12" width="9" style="2"/>
+    <col min="9" max="9" width="4.625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="9" style="2"/>
     <col min="13" max="13" width="2.625" style="2" customWidth="1"/>
     <col min="14" max="16" width="9" style="2"/>
     <col min="17" max="17" width="9" style="4"/>
@@ -14180,24 +14121,24 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J1:P186 A1:H192">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q186">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/三字经拼音版(打印版共8页).xlsx
+++ b/三字经拼音版(打印版共8页).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1119">
   <si>
     <t>rén</t>
   </si>
@@ -3247,7 +3247,179 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> shàn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gǒu</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3417,10 +3589,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="13.5"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3865,13 +4037,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4242,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -4251,13 +4423,13 @@
     <col min="1" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
     <col min="5" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="2" customWidth="1"/>
-    <col min="10" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="2.625" style="2" customWidth="1"/>
-    <col min="14" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="9" style="4"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="8.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="4" customWidth="1"/>
+    <col min="10" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="2.625" style="4" customWidth="1"/>
+    <col min="14" max="16" width="9" style="4"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4280,10 +4452,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
         <v>1075</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1074</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="1" t="s">
@@ -4296,7 +4468,7 @@
         <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>55</v>
@@ -4307,8 +4479,8 @@
       <c r="P1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>1074</v>
+      <c r="Q1" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4322,7 +4494,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -4333,8 +4505,8 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>1075</v>
+      <c r="H2" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1" t="s">
@@ -4347,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>28</v>
@@ -4358,8 +4530,8 @@
       <c r="P2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>1074</v>
+      <c r="Q2" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -4373,7 +4545,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -4384,8 +4556,8 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>1075</v>
+      <c r="H3" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
@@ -4398,7 +4570,7 @@
         <v>56</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>55</v>
@@ -4409,8 +4581,8 @@
       <c r="P3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>1074</v>
+      <c r="Q3" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4424,7 +4596,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -4435,8 +4607,8 @@
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>1075</v>
+      <c r="H4" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
@@ -4449,7 +4621,7 @@
         <v>61</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>28</v>
@@ -4460,13 +4632,13 @@
       <c r="P4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>1074</v>
+      <c r="Q4" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>1118</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -4475,7 +4647,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -4486,8 +4658,8 @@
       <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>1075</v>
+      <c r="H5" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1" t="s">
@@ -4500,7 +4672,7 @@
         <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>70</v>
@@ -4511,8 +4683,8 @@
       <c r="P5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>1074</v>
+      <c r="Q5" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -4526,7 +4698,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -4537,8 +4709,8 @@
       <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>1075</v>
+      <c r="H6" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
@@ -4551,7 +4723,7 @@
         <v>83</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>76</v>
@@ -4562,8 +4734,8 @@
       <c r="P6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>1074</v>
+      <c r="Q6" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4577,7 +4749,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -4588,8 +4760,8 @@
       <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>1075</v>
+      <c r="H7" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1" t="s">
@@ -4602,7 +4774,7 @@
         <v>68</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>15</v>
@@ -4613,8 +4785,8 @@
       <c r="P7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>1074</v>
+      <c r="Q7" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4628,7 +4800,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>39</v>
@@ -4639,8 +4811,8 @@
       <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>1075</v>
+      <c r="H8" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="1" t="s">
@@ -4653,7 +4825,7 @@
         <v>133</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>20</v>
@@ -4664,8 +4836,8 @@
       <c r="P8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>1074</v>
+      <c r="Q8" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4679,7 +4851,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
@@ -4690,8 +4862,8 @@
       <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>1075</v>
+      <c r="H9" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="1" t="s">
@@ -4704,7 +4876,7 @@
         <v>138</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>139</v>
@@ -4715,8 +4887,8 @@
       <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>1074</v>
+      <c r="Q9" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4730,7 +4902,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -4741,8 +4913,8 @@
       <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>1075</v>
+      <c r="H10" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="1" t="s">
@@ -4755,7 +4927,7 @@
         <v>143</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>144</v>
@@ -4766,8 +4938,8 @@
       <c r="P10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>1074</v>
+      <c r="Q10" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4781,7 +4953,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>57</v>
@@ -4792,8 +4964,8 @@
       <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>1075</v>
+      <c r="H11" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="1" t="s">
@@ -4806,7 +4978,7 @@
         <v>149</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>100</v>
@@ -4817,8 +4989,8 @@
       <c r="P11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>1074</v>
+      <c r="Q11" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4832,7 +5004,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>62</v>
@@ -4843,8 +5015,8 @@
       <c r="G12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>1075</v>
+      <c r="H12" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1" t="s">
@@ -4857,7 +5029,7 @@
         <v>154</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>103</v>
@@ -4868,8 +5040,8 @@
       <c r="P12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>1074</v>
+      <c r="Q12" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4883,7 +5055,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>68</v>
@@ -4894,8 +5066,8 @@
       <c r="G13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>1075</v>
+      <c r="H13" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="1" t="s">
@@ -4908,7 +5080,7 @@
         <v>159</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>139</v>
@@ -4919,8 +5091,8 @@
       <c r="P13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>1074</v>
+      <c r="Q13" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4934,7 +5106,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>74</v>
@@ -4945,8 +5117,8 @@
       <c r="G14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>1075</v>
+      <c r="H14" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="1" t="s">
@@ -4959,7 +5131,7 @@
         <v>164</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>144</v>
@@ -4970,8 +5142,8 @@
       <c r="P14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>1074</v>
+      <c r="Q14" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4985,7 +5157,7 @@
         <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>79</v>
@@ -4996,8 +5168,8 @@
       <c r="G15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>1075</v>
+      <c r="H15" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="1" t="s">
@@ -5010,7 +5182,7 @@
         <v>168</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>101</v>
@@ -5021,8 +5193,8 @@
       <c r="P15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>1074</v>
+      <c r="Q15" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -5036,7 +5208,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>84</v>
@@ -5047,8 +5219,8 @@
       <c r="G16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>1075</v>
+      <c r="H16" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="1" t="s">
@@ -5061,7 +5233,7 @@
         <v>171</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>104</v>
@@ -5072,8 +5244,8 @@
       <c r="P16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>1074</v>
+      <c r="Q16" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -5087,7 +5259,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>88</v>
@@ -5098,8 +5270,8 @@
       <c r="G17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>1075</v>
+      <c r="H17" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="1" t="s">
@@ -5112,7 +5284,7 @@
         <v>175</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>176</v>
@@ -5123,8 +5295,8 @@
       <c r="P17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>1074</v>
+      <c r="Q17" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -5138,7 +5310,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>91</v>
@@ -5149,8 +5321,8 @@
       <c r="G18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>1075</v>
+      <c r="H18" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="1" t="s">
@@ -5163,7 +5335,7 @@
         <v>181</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>182</v>
@@ -5174,8 +5346,8 @@
       <c r="P18" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>1074</v>
+      <c r="Q18" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -5189,7 +5361,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>94</v>
@@ -5200,8 +5372,8 @@
       <c r="G19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>1075</v>
+      <c r="H19" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="1" t="s">
@@ -5214,7 +5386,7 @@
         <v>187</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>125</v>
@@ -5225,8 +5397,8 @@
       <c r="P19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>1074</v>
+      <c r="Q19" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -5240,7 +5412,7 @@
         <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>97</v>
@@ -5251,8 +5423,8 @@
       <c r="G20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>1075</v>
+      <c r="H20" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="1" t="s">
@@ -5265,7 +5437,7 @@
         <v>190</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>191</v>
@@ -5276,8 +5448,8 @@
       <c r="P20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>1074</v>
+      <c r="Q20" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5291,7 +5463,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>99</v>
@@ -5302,8 +5474,8 @@
       <c r="G21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>1075</v>
+      <c r="H21" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="1" t="s">
@@ -5316,7 +5488,7 @@
         <v>125</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>125</v>
@@ -5327,8 +5499,8 @@
       <c r="P21" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>1074</v>
+      <c r="Q21" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5342,7 +5514,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>102</v>
@@ -5353,8 +5525,8 @@
       <c r="G22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>1075</v>
+      <c r="H22" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="1" t="s">
@@ -5367,7 +5539,7 @@
         <v>198</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>198</v>
@@ -5378,8 +5550,8 @@
       <c r="P22" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>1074</v>
+      <c r="Q22" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -5393,7 +5565,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>106</v>
@@ -5404,8 +5576,8 @@
       <c r="G23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>1075</v>
+      <c r="H23" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="1" t="s">
@@ -5418,7 +5590,7 @@
         <v>26</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>26</v>
@@ -5429,8 +5601,8 @@
       <c r="P23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>1074</v>
+      <c r="Q23" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -5444,7 +5616,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>110</v>
@@ -5455,8 +5627,8 @@
       <c r="G24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>1075</v>
+      <c r="H24" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="1" t="s">
@@ -5469,7 +5641,7 @@
         <v>203</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>203</v>
@@ -5480,8 +5652,8 @@
       <c r="P24" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>1074</v>
+      <c r="Q24" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -5495,7 +5667,7 @@
         <v>207</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>208</v>
@@ -5506,8 +5678,8 @@
       <c r="G25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>1075</v>
+      <c r="H25" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="1" t="s">
@@ -5520,7 +5692,7 @@
         <v>292</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>293</v>
@@ -5531,8 +5703,8 @@
       <c r="P25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>1074</v>
+      <c r="Q25" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5546,7 +5718,7 @@
         <v>212</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>213</v>
@@ -5557,8 +5729,8 @@
       <c r="G26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>1075</v>
+      <c r="H26" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="1" t="s">
@@ -5571,7 +5743,7 @@
         <v>298</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>299</v>
@@ -5582,8 +5754,8 @@
       <c r="P26" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="Q26" s="4" t="s">
-        <v>1074</v>
+      <c r="Q26" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5597,7 +5769,7 @@
         <v>207</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>216</v>
@@ -5608,8 +5780,8 @@
       <c r="G27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>1075</v>
+      <c r="H27" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="1" t="s">
@@ -5622,7 +5794,7 @@
         <v>303</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>123</v>
@@ -5633,8 +5805,8 @@
       <c r="P27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>1074</v>
+      <c r="Q27" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5648,7 +5820,7 @@
         <v>212</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>220</v>
@@ -5659,8 +5831,8 @@
       <c r="G28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>1075</v>
+      <c r="H28" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="1" t="s">
@@ -5673,7 +5845,7 @@
         <v>305</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>127</v>
@@ -5684,8 +5856,8 @@
       <c r="P28" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>1074</v>
+      <c r="Q28" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5699,7 +5871,7 @@
         <v>207</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>224</v>
@@ -5710,8 +5882,8 @@
       <c r="G29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>1075</v>
+      <c r="H29" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1" t="s">
@@ -5724,7 +5896,7 @@
         <v>81</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>58</v>
@@ -5735,8 +5907,8 @@
       <c r="P29" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>1074</v>
+      <c r="Q29" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5750,7 +5922,7 @@
         <v>212</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>227</v>
@@ -5761,8 +5933,8 @@
       <c r="G30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>1075</v>
+      <c r="H30" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="1" t="s">
@@ -5775,7 +5947,7 @@
         <v>313</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>314</v>
@@ -5786,8 +5958,8 @@
       <c r="P30" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>1074</v>
+      <c r="Q30" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5801,7 +5973,7 @@
         <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>230</v>
@@ -5812,8 +5984,8 @@
       <c r="G31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>1075</v>
+      <c r="H31" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="1" t="s">
@@ -5826,7 +5998,7 @@
         <v>317</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>123</v>
@@ -5837,8 +6009,8 @@
       <c r="P31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>1074</v>
+      <c r="Q31" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5852,7 +6024,7 @@
         <v>154</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>233</v>
@@ -5863,8 +6035,8 @@
       <c r="G32" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>1075</v>
+      <c r="H32" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="1" t="s">
@@ -5877,7 +6049,7 @@
         <v>318</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>127</v>
@@ -5888,8 +6060,8 @@
       <c r="P32" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>1074</v>
+      <c r="Q32" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5903,7 +6075,7 @@
         <v>238</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1073</v>
+        <v>1097</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>239</v>
@@ -5914,8 +6086,8 @@
       <c r="G33" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>1075</v>
+      <c r="H33" s="2" t="s">
+        <v>1098</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="1" t="s">
@@ -5928,7 +6100,7 @@
         <v>321</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>239</v>
@@ -5939,8 +6111,8 @@
       <c r="P33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q33" s="4" t="s">
-        <v>1074</v>
+      <c r="Q33" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5954,7 +6126,7 @@
         <v>244</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>245</v>
@@ -5965,8 +6137,8 @@
       <c r="G34" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>1075</v>
+      <c r="H34" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="1" t="s">
@@ -5979,7 +6151,7 @@
         <v>324</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>245</v>
@@ -5990,8 +6162,8 @@
       <c r="P34" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>1074</v>
+      <c r="Q34" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -6005,7 +6177,7 @@
         <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>249</v>
@@ -6016,8 +6188,8 @@
       <c r="G35" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>1075</v>
+      <c r="H35" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="1" t="s">
@@ -6030,7 +6202,7 @@
         <v>329</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>330</v>
@@ -6041,8 +6213,8 @@
       <c r="P35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>1074</v>
+      <c r="Q35" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -6056,7 +6228,7 @@
         <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>252</v>
@@ -6067,8 +6239,8 @@
       <c r="G36" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>1075</v>
+      <c r="H36" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="1" t="s">
@@ -6081,7 +6253,7 @@
         <v>334</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>335</v>
@@ -6092,8 +6264,8 @@
       <c r="P36" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Q36" s="4" t="s">
-        <v>1074</v>
+      <c r="Q36" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -6107,7 +6279,7 @@
         <v>255</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1073</v>
+        <v>1097</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>239</v>
@@ -6118,8 +6290,8 @@
       <c r="G37" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>1075</v>
+      <c r="H37" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="1" t="s">
@@ -6132,7 +6304,7 @@
         <v>339</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>269</v>
@@ -6143,8 +6315,8 @@
       <c r="P37" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Q37" s="4" t="s">
-        <v>1074</v>
+      <c r="Q37" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -6158,7 +6330,7 @@
         <v>258</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>245</v>
@@ -6169,8 +6341,8 @@
       <c r="G38" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>1075</v>
+      <c r="H38" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="1" t="s">
@@ -6183,7 +6355,7 @@
         <v>341</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>274</v>
@@ -6194,8 +6366,8 @@
       <c r="P38" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="Q38" s="4" t="s">
-        <v>1074</v>
+      <c r="Q38" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -6209,7 +6381,7 @@
         <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>261</v>
@@ -6220,8 +6392,8 @@
       <c r="G39" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>1075</v>
+      <c r="H39" s="2" t="s">
+        <v>1099</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="1" t="s">
@@ -6234,7 +6406,7 @@
         <v>345</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>25</v>
@@ -6245,8 +6417,8 @@
       <c r="P39" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="Q39" s="4" t="s">
-        <v>1074</v>
+      <c r="Q39" s="2" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -6260,7 +6432,7 @@
         <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>264</v>
@@ -6271,8 +6443,8 @@
       <c r="G40" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>1075</v>
+      <c r="H40" s="2" t="s">
+        <v>1100</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1" t="s">
@@ -6285,7 +6457,7 @@
         <v>350</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>30</v>
@@ -6296,8 +6468,8 @@
       <c r="P40" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="Q40" s="4" t="s">
-        <v>1074</v>
+      <c r="Q40" s="2" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -6311,7 +6483,7 @@
         <v>268</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1073</v>
+        <v>1097</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>269</v>
@@ -6322,8 +6494,8 @@
       <c r="G41" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>1075</v>
+      <c r="H41" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="1" t="s">
@@ -6336,7 +6508,7 @@
         <v>355</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>88</v>
@@ -6347,8 +6519,8 @@
       <c r="P41" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="Q41" s="4" t="s">
-        <v>1074</v>
+      <c r="Q41" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -6362,7 +6534,7 @@
         <v>273</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>274</v>
@@ -6373,8 +6545,8 @@
       <c r="G42" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>1075</v>
+      <c r="H42" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="1" t="s">
@@ -6387,7 +6559,7 @@
         <v>359</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>91</v>
@@ -6398,8 +6570,8 @@
       <c r="P42" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="Q42" s="4" t="s">
-        <v>1074</v>
+      <c r="Q42" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -6413,7 +6585,7 @@
         <v>277</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>4</v>
@@ -6424,8 +6596,8 @@
       <c r="G43" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>1075</v>
+      <c r="H43" s="2" t="s">
+        <v>1099</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="1" t="s">
@@ -6438,7 +6610,7 @@
         <v>78</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>78</v>
@@ -6449,8 +6621,8 @@
       <c r="P43" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="Q43" s="4" t="s">
-        <v>1074</v>
+      <c r="Q43" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -6464,7 +6636,7 @@
         <v>278</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
@@ -6475,8 +6647,8 @@
       <c r="G44" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>1075</v>
+      <c r="H44" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="1" t="s">
@@ -6489,7 +6661,7 @@
         <v>83</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>83</v>
@@ -6500,8 +6672,8 @@
       <c r="P44" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="Q44" s="4" t="s">
-        <v>1074</v>
+      <c r="Q44" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -6515,7 +6687,7 @@
         <v>69</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>131</v>
@@ -6526,8 +6698,8 @@
       <c r="G45" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>1075</v>
+      <c r="H45" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1" t="s">
@@ -6540,7 +6712,7 @@
         <v>362</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>279</v>
@@ -6551,8 +6723,8 @@
       <c r="P45" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="Q45" s="4" t="s">
-        <v>1074</v>
+      <c r="Q45" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -6566,7 +6738,7 @@
         <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>134</v>
@@ -6577,8 +6749,8 @@
       <c r="G46" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>1075</v>
+      <c r="H46" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1" t="s">
@@ -6591,7 +6763,7 @@
         <v>364</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>368</v>
@@ -6602,8 +6774,8 @@
       <c r="P46" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Q46" s="4" t="s">
-        <v>1074</v>
+      <c r="Q46" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -6617,7 +6789,7 @@
         <v>284</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>55</v>
@@ -6628,8 +6800,8 @@
       <c r="G47" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>1075</v>
+      <c r="H47" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="1" t="s">
@@ -6642,7 +6814,7 @@
         <v>371</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>123</v>
@@ -6653,8 +6825,8 @@
       <c r="P47" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q47" s="4" t="s">
-        <v>1074</v>
+      <c r="Q47" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6668,7 +6840,7 @@
         <v>287</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>28</v>
@@ -6679,8 +6851,8 @@
       <c r="G48" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>1075</v>
+      <c r="H48" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="1" t="s">
@@ -6693,7 +6865,7 @@
         <v>374</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>127</v>
@@ -6704,8 +6876,8 @@
       <c r="P48" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="Q48" s="4" t="s">
-        <v>1074</v>
+      <c r="Q48" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -6719,7 +6891,7 @@
         <v>376</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>230</v>
@@ -6730,8 +6902,8 @@
       <c r="G49" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>1075</v>
+      <c r="H49" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1" t="s">
@@ -6744,7 +6916,7 @@
         <v>443</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>444</v>
@@ -6755,8 +6927,8 @@
       <c r="P49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q49" s="4" t="s">
-        <v>1074</v>
+      <c r="Q49" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6770,7 +6942,7 @@
         <v>378</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>233</v>
@@ -6781,8 +6953,8 @@
       <c r="G50" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>1075</v>
+      <c r="H50" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="1" t="s">
@@ -6795,7 +6967,7 @@
         <v>446</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>447</v>
@@ -6806,8 +6978,8 @@
       <c r="P50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q50" s="4" t="s">
-        <v>1074</v>
+      <c r="Q50" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -6821,7 +6993,7 @@
         <v>68</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>209</v>
@@ -6832,8 +7004,8 @@
       <c r="G51" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>1075</v>
+      <c r="H51" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="1" t="s">
@@ -6846,7 +7018,7 @@
         <v>449</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>78</v>
@@ -6857,8 +7029,8 @@
       <c r="P51" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="Q51" s="4" t="s">
-        <v>1074</v>
+      <c r="Q51" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -6872,7 +7044,7 @@
         <v>133</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>384</v>
@@ -6883,8 +7055,8 @@
       <c r="G52" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>1075</v>
+      <c r="H52" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="1" t="s">
@@ -6897,7 +7069,7 @@
         <v>453</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>83</v>
@@ -6908,8 +7080,8 @@
       <c r="P52" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="Q52" s="4" t="s">
-        <v>1074</v>
+      <c r="Q52" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -6923,7 +7095,7 @@
         <v>388</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>68</v>
@@ -6934,8 +7106,8 @@
       <c r="G53" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>1075</v>
+      <c r="H53" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="1" t="s">
@@ -6948,7 +7120,7 @@
         <v>429</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>449</v>
@@ -6959,8 +7131,8 @@
       <c r="P53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="4" t="s">
-        <v>1074</v>
+      <c r="Q53" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -6974,7 +7146,7 @@
         <v>392</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>133</v>
@@ -6985,8 +7157,8 @@
       <c r="G54" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>1075</v>
+      <c r="H54" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="1" t="s">
@@ -6999,7 +7171,7 @@
         <v>458</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>453</v>
@@ -7010,8 +7182,8 @@
       <c r="P54" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="Q54" s="4" t="s">
-        <v>1074</v>
+      <c r="Q54" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -7025,7 +7197,7 @@
         <v>395</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>225</v>
@@ -7036,8 +7208,8 @@
       <c r="G55" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>1075</v>
+      <c r="H55" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="1" t="s">
@@ -7050,7 +7222,7 @@
         <v>56</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>25</v>
@@ -7061,8 +7233,8 @@
       <c r="P55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q55" s="4" t="s">
-        <v>1074</v>
+      <c r="Q55" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -7076,7 +7248,7 @@
         <v>397</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>228</v>
@@ -7087,8 +7259,8 @@
       <c r="G56" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>1075</v>
+      <c r="H56" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="1" t="s">
@@ -7101,7 +7273,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>30</v>
@@ -7112,8 +7284,8 @@
       <c r="P56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q56" s="4" t="s">
-        <v>1074</v>
+      <c r="Q56" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -7127,7 +7299,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>123</v>
@@ -7138,8 +7310,8 @@
       <c r="G57" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>1075</v>
+      <c r="H57" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="1" t="s">
@@ -7152,7 +7324,7 @@
         <v>463</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>279</v>
@@ -7163,8 +7335,8 @@
       <c r="P57" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q57" s="4" t="s">
-        <v>1074</v>
+      <c r="Q57" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -7178,7 +7350,7 @@
         <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>127</v>
@@ -7189,8 +7361,8 @@
       <c r="G58" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>1075</v>
+      <c r="H58" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="1" t="s">
@@ -7203,7 +7375,7 @@
         <v>466</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>368</v>
@@ -7214,8 +7386,8 @@
       <c r="P58" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Q58" s="4" t="s">
-        <v>1074</v>
+      <c r="Q58" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -7229,7 +7401,7 @@
         <v>403</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>404</v>
@@ -7240,8 +7412,8 @@
       <c r="G59" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>1075</v>
+      <c r="H59" s="2" t="s">
+        <v>1099</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1" t="s">
@@ -7254,7 +7426,7 @@
         <v>470</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>1073</v>
+        <v>1104</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>158</v>
@@ -7265,8 +7437,8 @@
       <c r="P59" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="Q59" s="4" t="s">
-        <v>1074</v>
+      <c r="Q59" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -7280,7 +7452,7 @@
         <v>409</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>410</v>
@@ -7291,8 +7463,8 @@
       <c r="G60" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>1075</v>
+      <c r="H60" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="1" t="s">
@@ -7305,7 +7477,7 @@
         <v>473</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>163</v>
@@ -7316,8 +7488,8 @@
       <c r="P60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="Q60" s="4" t="s">
-        <v>1074</v>
+      <c r="Q60" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -7331,7 +7503,7 @@
         <v>303</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>79</v>
@@ -7342,8 +7514,8 @@
       <c r="G61" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>1075</v>
+      <c r="H61" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="1" t="s">
@@ -7356,7 +7528,7 @@
         <v>469</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>310</v>
@@ -7367,8 +7539,8 @@
       <c r="P61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="Q61" s="4" t="s">
-        <v>1074</v>
+      <c r="Q61" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7382,7 +7554,7 @@
         <v>416</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>417</v>
@@ -7393,8 +7565,8 @@
       <c r="G62" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>1075</v>
+      <c r="H62" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="1" t="s">
@@ -7407,7 +7579,7 @@
         <v>472</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>479</v>
@@ -7418,8 +7590,8 @@
       <c r="P62" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Q62" s="4" t="s">
-        <v>1074</v>
+      <c r="Q62" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -7433,7 +7605,7 @@
         <v>207</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>421</v>
@@ -7444,8 +7616,8 @@
       <c r="G63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>1075</v>
+      <c r="H63" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="1" t="s">
@@ -7458,7 +7630,7 @@
         <v>69</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>131</v>
@@ -7469,8 +7641,8 @@
       <c r="P63" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Q63" s="4" t="s">
-        <v>1074</v>
+      <c r="Q63" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -7484,7 +7656,7 @@
         <v>212</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>422</v>
@@ -7495,8 +7667,8 @@
       <c r="G64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>1075</v>
+      <c r="H64" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="1" t="s">
@@ -7509,7 +7681,7 @@
         <v>459</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>134</v>
@@ -7520,8 +7692,8 @@
       <c r="P64" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="Q64" s="4" t="s">
-        <v>1074</v>
+      <c r="Q64" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7535,7 +7707,7 @@
         <v>263</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>279</v>
@@ -7546,8 +7718,8 @@
       <c r="G65" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>1075</v>
+      <c r="H65" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1" t="s">
@@ -7560,7 +7732,7 @@
         <v>469</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>150</v>
@@ -7571,8 +7743,8 @@
       <c r="P65" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="Q65" s="4" t="s">
-        <v>1074</v>
+      <c r="Q65" s="2" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -7586,7 +7758,7 @@
         <v>425</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>368</v>
@@ -7597,8 +7769,8 @@
       <c r="G66" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>1075</v>
+      <c r="H66" s="2" t="s">
+        <v>1106</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1" t="s">
@@ -7611,7 +7783,7 @@
         <v>472</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>155</v>
@@ -7622,8 +7794,8 @@
       <c r="P66" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="Q66" s="4" t="s">
-        <v>1074</v>
+      <c r="Q66" s="2" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -7637,7 +7809,7 @@
         <v>207</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>428</v>
@@ -7648,8 +7820,8 @@
       <c r="G67" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>1075</v>
+      <c r="H67" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="1" t="s">
@@ -7662,7 +7834,7 @@
         <v>67</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>68</v>
@@ -7673,8 +7845,8 @@
       <c r="P67" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="Q67" s="4" t="s">
-        <v>1074</v>
+      <c r="Q67" s="2" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -7688,7 +7860,7 @@
         <v>212</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>432</v>
@@ -7699,8 +7871,8 @@
       <c r="G68" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>1075</v>
+      <c r="H68" s="2" t="s">
+        <v>1107</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1" t="s">
@@ -7713,7 +7885,7 @@
         <v>73</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>74</v>
@@ -7724,8 +7896,8 @@
       <c r="P68" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="Q68" s="4" t="s">
-        <v>1074</v>
+      <c r="Q68" s="2" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7739,7 +7911,7 @@
         <v>78</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>295</v>
@@ -7750,8 +7922,8 @@
       <c r="G69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>1075</v>
+      <c r="H69" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1" t="s">
@@ -7764,7 +7936,7 @@
         <v>69</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>496</v>
@@ -7775,8 +7947,8 @@
       <c r="P69" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="Q69" s="4" t="s">
-        <v>1074</v>
+      <c r="Q69" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7790,7 +7962,7 @@
         <v>83</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>436</v>
@@ -7801,8 +7973,8 @@
       <c r="G70" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>1075</v>
+      <c r="H70" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1" t="s">
@@ -7815,7 +7987,7 @@
         <v>459</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>499</v>
@@ -7826,8 +7998,8 @@
       <c r="P70" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="Q70" s="4" t="s">
-        <v>1074</v>
+      <c r="Q70" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -7841,7 +8013,7 @@
         <v>207</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>330</v>
@@ -7852,8 +8024,8 @@
       <c r="G71" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>1075</v>
+      <c r="H71" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1" t="s">
@@ -7866,7 +8038,7 @@
         <v>502</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>1073</v>
+        <v>1108</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>68</v>
@@ -7877,8 +8049,8 @@
       <c r="P71" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="Q71" s="4" t="s">
-        <v>1074</v>
+      <c r="Q71" s="2" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -7892,7 +8064,7 @@
         <v>212</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1073</v>
+        <v>1108</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>335</v>
@@ -7903,8 +8075,8 @@
       <c r="G72" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>1075</v>
+      <c r="H72" s="2" t="s">
+        <v>1109</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1" t="s">
@@ -7917,7 +8089,7 @@
         <v>505</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>1073</v>
+        <v>1108</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>74</v>
@@ -7928,8 +8100,8 @@
       <c r="P72" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Q72" s="4" t="s">
-        <v>1074</v>
+      <c r="Q72" s="2" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -7943,7 +8115,7 @@
         <v>508</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>292</v>
@@ -7954,8 +8126,8 @@
       <c r="G73" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>1075</v>
+      <c r="H73" s="2" t="s">
+        <v>1106</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1" t="s">
@@ -7968,7 +8140,7 @@
         <v>573</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>295</v>
@@ -7979,8 +8151,8 @@
       <c r="P73" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="Q73" s="4" t="s">
-        <v>1074</v>
+      <c r="Q73" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -7994,7 +8166,7 @@
         <v>511</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>426</v>
@@ -8005,8 +8177,8 @@
       <c r="G74" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>1075</v>
+      <c r="H74" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1" t="s">
@@ -8019,7 +8191,7 @@
         <v>576</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>436</v>
@@ -8030,8 +8202,8 @@
       <c r="P74" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="Q74" s="4" t="s">
-        <v>1074</v>
+      <c r="Q74" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -8045,7 +8217,7 @@
         <v>381</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>514</v>
@@ -8056,8 +8228,8 @@
       <c r="G75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>1075</v>
+      <c r="H75" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1" t="s">
@@ -8070,7 +8242,7 @@
         <v>207</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>68</v>
@@ -8081,8 +8253,8 @@
       <c r="P75" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q75" s="4" t="s">
-        <v>1074</v>
+      <c r="Q75" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -8096,7 +8268,7 @@
         <v>516</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>517</v>
@@ -8107,8 +8279,8 @@
       <c r="G76" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>1075</v>
+      <c r="H76" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1" t="s">
@@ -8121,7 +8293,7 @@
         <v>212</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>74</v>
@@ -8132,8 +8304,8 @@
       <c r="P76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q76" s="4" t="s">
-        <v>1074</v>
+      <c r="Q76" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -8147,7 +8319,7 @@
         <v>519</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>520</v>
@@ -8158,8 +8330,8 @@
       <c r="G77" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>1075</v>
+      <c r="H77" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1" t="s">
@@ -8172,7 +8344,7 @@
         <v>78</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>583</v>
@@ -8183,8 +8355,8 @@
       <c r="P77" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="Q77" s="4" t="s">
-        <v>1074</v>
+      <c r="Q77" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -8198,7 +8370,7 @@
         <v>523</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>524</v>
@@ -8209,8 +8381,8 @@
       <c r="G78" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>1075</v>
+      <c r="H78" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1" t="s">
@@ -8223,7 +8395,7 @@
         <v>83</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>586</v>
@@ -8234,8 +8406,8 @@
       <c r="P78" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="Q78" s="4" t="s">
-        <v>1074</v>
+      <c r="Q78" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8249,7 +8421,7 @@
         <v>528</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>59</v>
@@ -8260,8 +8432,8 @@
       <c r="G79" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>1075</v>
+      <c r="H79" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1" t="s">
@@ -8274,7 +8446,7 @@
         <v>470</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>477</v>
@@ -8285,8 +8457,8 @@
       <c r="P79" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="Q79" s="4" t="s">
-        <v>1074</v>
+      <c r="Q79" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -8300,7 +8472,7 @@
         <v>531</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>532</v>
@@ -8311,8 +8483,8 @@
       <c r="G80" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>1075</v>
+      <c r="H80" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1" t="s">
@@ -8325,7 +8497,7 @@
         <v>473</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>419</v>
@@ -8336,8 +8508,8 @@
       <c r="P80" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="Q80" s="4" t="s">
-        <v>1074</v>
+      <c r="Q80" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -8351,7 +8523,7 @@
         <v>93</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>131</v>
@@ -8362,8 +8534,8 @@
       <c r="G81" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>1075</v>
+      <c r="H81" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1" t="s">
@@ -8376,7 +8548,7 @@
         <v>592</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>1</v>
@@ -8387,8 +8559,8 @@
       <c r="P81" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="Q81" s="4" t="s">
-        <v>1074</v>
+      <c r="Q81" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -8402,7 +8574,7 @@
         <v>437</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>134</v>
@@ -8413,8 +8585,8 @@
       <c r="G82" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>1075</v>
+      <c r="H82" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1" t="s">
@@ -8427,7 +8599,7 @@
         <v>595</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>121</v>
@@ -8438,8 +8610,8 @@
       <c r="P82" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="Q82" s="4" t="s">
-        <v>1074</v>
+      <c r="Q82" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -8453,7 +8625,7 @@
         <v>541</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1073</v>
+        <v>1097</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>239</v>
@@ -8464,8 +8636,8 @@
       <c r="G83" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>1075</v>
+      <c r="H83" s="2" t="s">
+        <v>1110</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="1" t="s">
@@ -8478,7 +8650,7 @@
         <v>596</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>279</v>
@@ -8489,8 +8661,8 @@
       <c r="P83" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q83" s="4" t="s">
-        <v>1074</v>
+      <c r="Q83" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -8504,7 +8676,7 @@
         <v>545</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>245</v>
@@ -8515,8 +8687,8 @@
       <c r="G84" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>1075</v>
+      <c r="H84" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1" t="s">
@@ -8529,7 +8701,7 @@
         <v>599</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>368</v>
@@ -8540,8 +8712,8 @@
       <c r="P84" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="Q84" s="4" t="s">
-        <v>1074</v>
+      <c r="Q84" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -8555,7 +8727,7 @@
         <v>94</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>150</v>
@@ -8566,8 +8738,8 @@
       <c r="G85" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>1075</v>
+      <c r="H85" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1" t="s">
@@ -8580,7 +8752,7 @@
         <v>597</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>602</v>
@@ -8591,8 +8763,8 @@
       <c r="P85" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="Q85" s="4" t="s">
-        <v>1074</v>
+      <c r="Q85" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -8606,7 +8778,7 @@
         <v>550</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1073</v>
+        <v>1104</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>155</v>
@@ -8617,8 +8789,8 @@
       <c r="G86" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>1075</v>
+      <c r="H86" s="2" t="s">
+        <v>1099</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1" t="s">
@@ -8631,7 +8803,7 @@
         <v>604</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>1073</v>
+        <v>1104</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>605</v>
@@ -8642,8 +8814,8 @@
       <c r="P86" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="Q86" s="4" t="s">
-        <v>1074</v>
+      <c r="Q86" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -8657,7 +8829,7 @@
         <v>553</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>237</v>
@@ -8668,8 +8840,8 @@
       <c r="G87" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>1075</v>
+      <c r="H87" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="1" t="s">
@@ -8682,7 +8854,7 @@
         <v>148</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>608</v>
@@ -8693,8 +8865,8 @@
       <c r="P87" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q87" s="4" t="s">
-        <v>1074</v>
+      <c r="Q87" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -8708,7 +8880,7 @@
         <v>555</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>243</v>
@@ -8719,8 +8891,8 @@
       <c r="G88" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>1075</v>
+      <c r="H88" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="1" t="s">
@@ -8733,7 +8905,7 @@
         <v>610</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>611</v>
@@ -8744,8 +8916,8 @@
       <c r="P88" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="Q88" s="4" t="s">
-        <v>1074</v>
+      <c r="Q88" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -8759,7 +8931,7 @@
         <v>557</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>558</v>
@@ -8770,8 +8942,8 @@
       <c r="G89" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>1075</v>
+      <c r="H89" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1" t="s">
@@ -8784,7 +8956,7 @@
         <v>402</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>613</v>
@@ -8795,8 +8967,8 @@
       <c r="P89" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="Q89" s="4" t="s">
-        <v>1074</v>
+      <c r="Q89" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -8810,7 +8982,7 @@
         <v>562</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>563</v>
@@ -8821,8 +8993,8 @@
       <c r="G90" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>1075</v>
+      <c r="H90" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1" t="s">
@@ -8835,7 +9007,7 @@
         <v>616</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>617</v>
@@ -8846,8 +9018,8 @@
       <c r="P90" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="Q90" s="4" t="s">
-        <v>1074</v>
+      <c r="Q90" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8861,7 +9033,7 @@
         <v>207</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>68</v>
@@ -8872,8 +9044,8 @@
       <c r="G91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>1075</v>
+      <c r="H91" s="2" t="s">
+        <v>1111</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="1" t="s">
@@ -8886,7 +9058,7 @@
         <v>344</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>620</v>
@@ -8897,8 +9069,8 @@
       <c r="P91" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="Q91" s="4" t="s">
-        <v>1074</v>
+      <c r="Q91" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -8912,7 +9084,7 @@
         <v>212</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>74</v>
@@ -8923,8 +9095,8 @@
       <c r="G92" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>1075</v>
+      <c r="H92" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="1" t="s">
@@ -8937,7 +9109,7 @@
         <v>623</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>624</v>
@@ -8948,8 +9120,8 @@
       <c r="P92" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="Q92" s="4" t="s">
-        <v>1074</v>
+      <c r="Q92" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -8963,7 +9135,7 @@
         <v>507</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>68</v>
@@ -8974,8 +9146,8 @@
       <c r="G93" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>1075</v>
+      <c r="H93" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1" t="s">
@@ -8988,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>613</v>
@@ -8999,8 +9171,8 @@
       <c r="P93" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="Q93" s="4" t="s">
-        <v>1074</v>
+      <c r="Q93" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -9014,7 +9186,7 @@
         <v>568</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>74</v>
@@ -9025,8 +9197,8 @@
       <c r="G94" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H94" s="4" t="s">
-        <v>1075</v>
+      <c r="H94" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1" t="s">
@@ -9039,7 +9211,7 @@
         <v>628</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>617</v>
@@ -9050,8 +9222,8 @@
       <c r="P94" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="Q94" s="4" t="s">
-        <v>1074</v>
+      <c r="Q94" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -9065,7 +9237,7 @@
         <v>79</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>70</v>
@@ -9076,8 +9248,8 @@
       <c r="G95" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>1075</v>
+      <c r="H95" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1" t="s">
@@ -9090,7 +9262,7 @@
         <v>78</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>631</v>
@@ -9101,8 +9273,8 @@
       <c r="P95" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q95" s="4" t="s">
-        <v>1074</v>
+      <c r="Q95" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -9116,7 +9288,7 @@
         <v>417</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>76</v>
@@ -9127,8 +9299,8 @@
       <c r="G96" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>1075</v>
+      <c r="H96" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1" t="s">
@@ -9141,7 +9313,7 @@
         <v>83</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>632</v>
@@ -9152,8 +9324,8 @@
       <c r="P96" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="Q96" s="4" t="s">
-        <v>1074</v>
+      <c r="Q96" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -9167,7 +9339,7 @@
         <v>635</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>26</v>
@@ -9178,8 +9350,8 @@
       <c r="G97" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>1075</v>
+      <c r="H97" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="1" t="s">
@@ -9192,7 +9364,7 @@
         <v>699</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>553</v>
@@ -9203,8 +9375,8 @@
       <c r="P97" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="Q97" s="4" t="s">
-        <v>1074</v>
+      <c r="Q97" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -9218,7 +9390,7 @@
         <v>638</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>31</v>
@@ -9229,8 +9401,8 @@
       <c r="G98" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>1075</v>
+      <c r="H98" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1" t="s">
@@ -9243,7 +9415,7 @@
         <v>467</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>629</v>
@@ -9254,8 +9426,8 @@
       <c r="P98" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="Q98" s="4" t="s">
-        <v>1074</v>
+      <c r="Q98" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -9269,7 +9441,7 @@
         <v>238</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1073</v>
+        <v>1112</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>540</v>
@@ -9280,8 +9452,8 @@
       <c r="G99" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>1075</v>
+      <c r="H99" s="2" t="s">
+        <v>1113</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1" t="s">
@@ -9294,7 +9466,7 @@
         <v>218</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>108</v>
@@ -9305,8 +9477,8 @@
       <c r="P99" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="Q99" s="4" t="s">
-        <v>1074</v>
+      <c r="Q99" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -9320,7 +9492,7 @@
         <v>244</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>544</v>
@@ -9331,8 +9503,8 @@
       <c r="G100" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>1075</v>
+      <c r="H100" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1" t="s">
@@ -9345,7 +9517,7 @@
         <v>695</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>112</v>
@@ -9356,8 +9528,8 @@
       <c r="P100" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="Q100" s="4" t="s">
-        <v>1074</v>
+      <c r="Q100" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -9371,7 +9543,7 @@
         <v>635</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>279</v>
@@ -9382,8 +9554,8 @@
       <c r="G101" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>1075</v>
+      <c r="H101" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1" t="s">
@@ -9396,7 +9568,7 @@
         <v>707</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>263</v>
@@ -9407,8 +9579,8 @@
       <c r="P101" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="Q101" s="4" t="s">
-        <v>1074</v>
+      <c r="Q101" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -9422,7 +9594,7 @@
         <v>638</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>368</v>
@@ -9433,8 +9605,8 @@
       <c r="G102" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>1075</v>
+      <c r="H102" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1" t="s">
@@ -9447,7 +9619,7 @@
         <v>709</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>425</v>
@@ -9458,8 +9630,8 @@
       <c r="P102" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="Q102" s="4" t="s">
-        <v>1074</v>
+      <c r="Q102" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -9473,7 +9645,7 @@
         <v>553</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>310</v>
@@ -9484,8 +9656,8 @@
       <c r="G103" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>1075</v>
+      <c r="H103" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1" t="s">
@@ -9498,7 +9670,7 @@
         <v>711</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>689</v>
@@ -9509,8 +9681,8 @@
       <c r="P103" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="Q103" s="4" t="s">
-        <v>1074</v>
+      <c r="Q103" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -9524,7 +9696,7 @@
         <v>629</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>479</v>
@@ -9535,8 +9707,8 @@
       <c r="G104" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>1075</v>
+      <c r="H104" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1" t="s">
@@ -9549,7 +9721,7 @@
         <v>715</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>693</v>
@@ -9560,8 +9732,8 @@
       <c r="P104" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="Q104" s="4" t="s">
-        <v>1074</v>
+      <c r="Q104" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -9575,7 +9747,7 @@
         <v>635</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>650</v>
@@ -9586,8 +9758,8 @@
       <c r="G105" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>1075</v>
+      <c r="H105" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1" t="s">
@@ -9600,7 +9772,7 @@
         <v>540</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>116</v>
@@ -9611,8 +9783,8 @@
       <c r="P105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q105" s="4" t="s">
-        <v>1074</v>
+      <c r="Q105" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -9626,7 +9798,7 @@
         <v>638</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>652</v>
@@ -9637,8 +9809,8 @@
       <c r="G106" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>1075</v>
+      <c r="H106" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1" t="s">
@@ -9651,7 +9823,7 @@
         <v>544</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>718</v>
@@ -9662,8 +9834,8 @@
       <c r="P106" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="Q106" s="4" t="s">
-        <v>1074</v>
+      <c r="Q106" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -9677,7 +9849,7 @@
         <v>241</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>553</v>
@@ -9688,8 +9860,8 @@
       <c r="G107" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>1075</v>
+      <c r="H107" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1" t="s">
@@ -9702,7 +9874,7 @@
         <v>295</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>291</v>
@@ -9713,8 +9885,8 @@
       <c r="P107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q107" s="4" t="s">
-        <v>1074</v>
+      <c r="Q107" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9728,7 +9900,7 @@
         <v>260</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>629</v>
@@ -9739,8 +9911,8 @@
       <c r="G108" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>1075</v>
+      <c r="H108" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="1" t="s">
@@ -9753,7 +9925,7 @@
         <v>723</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>569</v>
@@ -9764,8 +9936,8 @@
       <c r="P108" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="Q108" s="4" t="s">
-        <v>1074</v>
+      <c r="Q108" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -9779,7 +9951,7 @@
         <v>660</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1073</v>
+        <v>1097</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>603</v>
@@ -9790,8 +9962,8 @@
       <c r="G109" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>1075</v>
+      <c r="H109" s="2" t="s">
+        <v>1098</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="1" t="s">
@@ -9804,7 +9976,7 @@
         <v>726</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>727</v>
@@ -9815,8 +9987,8 @@
       <c r="P109" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Q109" s="4" t="s">
-        <v>1074</v>
+      <c r="Q109" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -9830,7 +10002,7 @@
         <v>665</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1073</v>
+        <v>1104</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>666</v>
@@ -9841,8 +10013,8 @@
       <c r="G110" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H110" s="4" t="s">
-        <v>1075</v>
+      <c r="H110" s="2" t="s">
+        <v>1099</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1" t="s">
@@ -9855,7 +10027,7 @@
         <v>728</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>1073</v>
+        <v>1104</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>729</v>
@@ -9866,8 +10038,8 @@
       <c r="P110" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="Q110" s="4" t="s">
-        <v>1074</v>
+      <c r="Q110" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -9881,7 +10053,7 @@
         <v>240</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>263</v>
@@ -9892,8 +10064,8 @@
       <c r="G111" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>1075</v>
+      <c r="H111" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1" t="s">
@@ -9906,7 +10078,7 @@
         <v>733</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>734</v>
@@ -9917,8 +10089,8 @@
       <c r="P111" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="Q111" s="4" t="s">
-        <v>1074</v>
+      <c r="Q111" s="2" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -9932,7 +10104,7 @@
         <v>246</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>425</v>
@@ -9943,8 +10115,8 @@
       <c r="G112" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>1075</v>
+      <c r="H112" s="2" t="s">
+        <v>1114</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1" t="s">
@@ -9957,7 +10129,7 @@
         <v>738</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>739</v>
@@ -9968,8 +10140,8 @@
       <c r="P112" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="Q112" s="4" t="s">
-        <v>1074</v>
+      <c r="Q112" s="2" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -9983,7 +10155,7 @@
         <v>673</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>330</v>
@@ -9994,8 +10166,8 @@
       <c r="G113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>1075</v>
+      <c r="H113" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1" t="s">
@@ -10008,7 +10180,7 @@
         <v>495</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>344</v>
@@ -10019,8 +10191,8 @@
       <c r="P113" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Q113" s="4" t="s">
-        <v>1074</v>
+      <c r="Q113" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -10034,7 +10206,7 @@
         <v>676</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>335</v>
@@ -10045,8 +10217,8 @@
       <c r="G114" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>1075</v>
+      <c r="H114" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1" t="s">
@@ -10059,7 +10231,7 @@
         <v>498</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>349</v>
@@ -10070,8 +10242,8 @@
       <c r="P114" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q114" s="4" t="s">
-        <v>1074</v>
+      <c r="Q114" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -10085,7 +10257,7 @@
         <v>507</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>310</v>
@@ -10096,8 +10268,8 @@
       <c r="G115" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>1075</v>
+      <c r="H115" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1" t="s">
@@ -10110,7 +10282,7 @@
         <v>745</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>69</v>
@@ -10121,8 +10293,8 @@
       <c r="P115" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Q115" s="4" t="s">
-        <v>1074</v>
+      <c r="Q115" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -10136,7 +10308,7 @@
         <v>568</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>479</v>
@@ -10147,8 +10319,8 @@
       <c r="G116" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>1075</v>
+      <c r="H116" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1" t="s">
@@ -10161,7 +10333,7 @@
         <v>747</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>748</v>
@@ -10172,8 +10344,8 @@
       <c r="P116" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="Q116" s="4" t="s">
-        <v>1074</v>
+      <c r="Q116" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -10187,7 +10359,7 @@
         <v>507</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>47</v>
@@ -10198,8 +10370,8 @@
       <c r="G117" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="H117" s="4" t="s">
-        <v>1075</v>
+      <c r="H117" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1" t="s">
@@ -10212,7 +10384,7 @@
         <v>630</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N117" s="1" t="s">
         <v>94</v>
@@ -10223,8 +10395,8 @@
       <c r="P117" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="Q117" s="4" t="s">
-        <v>1074</v>
+      <c r="Q117" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -10238,7 +10410,7 @@
         <v>594</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>691</v>
@@ -10249,8 +10421,8 @@
       <c r="G118" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="H118" s="4" t="s">
-        <v>1075</v>
+      <c r="H118" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1" t="s">
@@ -10263,7 +10435,7 @@
         <v>565</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>755</v>
@@ -10274,8 +10446,8 @@
       <c r="P118" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="Q118" s="4" t="s">
-        <v>1074</v>
+      <c r="Q118" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -10289,7 +10461,7 @@
         <v>218</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>688</v>
@@ -10300,8 +10472,8 @@
       <c r="G119" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H119" s="4" t="s">
-        <v>1075</v>
+      <c r="H119" s="2" t="s">
+        <v>1115</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1" t="s">
@@ -10314,7 +10486,7 @@
         <v>355</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N119" s="1" t="s">
         <v>758</v>
@@ -10325,8 +10497,8 @@
       <c r="P119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q119" s="4" t="s">
-        <v>1074</v>
+      <c r="Q119" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -10340,7 +10512,7 @@
         <v>695</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>692</v>
@@ -10351,8 +10523,8 @@
       <c r="G120" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="H120" s="4" t="s">
-        <v>1075</v>
+      <c r="H120" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1" t="s">
@@ -10365,7 +10537,7 @@
         <v>359</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>759</v>
@@ -10376,8 +10548,8 @@
       <c r="P120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q120" s="4" t="s">
-        <v>1074</v>
+      <c r="Q120" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -10391,7 +10563,7 @@
         <v>761</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>762</v>
@@ -10402,8 +10574,8 @@
       <c r="G121" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H121" s="4" t="s">
-        <v>1075</v>
+      <c r="H121" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1" t="s">
@@ -10416,7 +10588,7 @@
         <v>355</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>137</v>
@@ -10427,8 +10599,8 @@
       <c r="P121" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q121" s="4" t="s">
-        <v>1074</v>
+      <c r="Q121" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -10442,7 +10614,7 @@
         <v>764</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>765</v>
@@ -10453,8 +10625,8 @@
       <c r="G122" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>1075</v>
+      <c r="H122" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1" t="s">
@@ -10467,7 +10639,7 @@
         <v>359</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>653</v>
@@ -10478,8 +10650,8 @@
       <c r="P122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q122" s="4" t="s">
-        <v>1074</v>
+      <c r="Q122" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -10493,7 +10665,7 @@
         <v>630</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>496</v>
@@ -10504,8 +10676,8 @@
       <c r="G123" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="H123" s="4" t="s">
-        <v>1075</v>
+      <c r="H123" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1" t="s">
@@ -10518,7 +10690,7 @@
         <v>178</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N123" s="1" t="s">
         <v>70</v>
@@ -10529,8 +10701,8 @@
       <c r="P123" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q123" s="4" t="s">
-        <v>1074</v>
+      <c r="Q123" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -10544,7 +10716,7 @@
         <v>565</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>499</v>
@@ -10555,8 +10727,8 @@
       <c r="G124" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="H124" s="4" t="s">
-        <v>1075</v>
+      <c r="H124" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1" t="s">
@@ -10569,7 +10741,7 @@
         <v>192</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>76</v>
@@ -10580,8 +10752,8 @@
       <c r="P124" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="Q124" s="4" t="s">
-        <v>1074</v>
+      <c r="Q124" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -10595,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>540</v>
@@ -10606,8 +10778,8 @@
       <c r="G125" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>1075</v>
+      <c r="H125" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1" t="s">
@@ -10620,7 +10792,7 @@
         <v>469</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>549</v>
@@ -10631,8 +10803,8 @@
       <c r="P125" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q125" s="4" t="s">
-        <v>1074</v>
+      <c r="Q125" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -10646,7 +10818,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>544</v>
@@ -10657,8 +10829,8 @@
       <c r="G126" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="H126" s="4" t="s">
-        <v>1075</v>
+      <c r="H126" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1" t="s">
@@ -10671,7 +10843,7 @@
         <v>815</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>816</v>
@@ -10682,8 +10854,8 @@
       <c r="P126" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="Q126" s="4" t="s">
-        <v>1074</v>
+      <c r="Q126" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -10697,7 +10869,7 @@
         <v>14</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>583</v>
@@ -10708,8 +10880,8 @@
       <c r="G127" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H127" s="4" t="s">
-        <v>1075</v>
+      <c r="H127" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1" t="s">
@@ -10722,7 +10894,7 @@
         <v>819</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>820</v>
@@ -10733,8 +10905,8 @@
       <c r="P127" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="Q127" s="4" t="s">
-        <v>1074</v>
+      <c r="Q127" s="2" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -10748,7 +10920,7 @@
         <v>720</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>586</v>
@@ -10759,8 +10931,8 @@
       <c r="G128" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H128" s="4" t="s">
-        <v>1075</v>
+      <c r="H128" s="2" t="s">
+        <v>1114</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1" t="s">
@@ -10773,7 +10945,7 @@
         <v>822</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="N128" s="1" t="s">
         <v>823</v>
@@ -10784,8 +10956,8 @@
       <c r="P128" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="Q128" s="4" t="s">
-        <v>1074</v>
+      <c r="Q128" s="2" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -10799,7 +10971,7 @@
         <v>528</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>778</v>
@@ -10810,8 +10982,8 @@
       <c r="G129" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="H129" s="4" t="s">
-        <v>1075</v>
+      <c r="H129" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1" t="s">
@@ -10824,7 +10996,7 @@
         <v>355</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>826</v>
@@ -10835,8 +11007,8 @@
       <c r="P129" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="Q129" s="4" t="s">
-        <v>1074</v>
+      <c r="Q129" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -10850,7 +11022,7 @@
         <v>780</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>781</v>
@@ -10861,8 +11033,8 @@
       <c r="G130" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H130" s="4" t="s">
-        <v>1075</v>
+      <c r="H130" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1" t="s">
@@ -10875,7 +11047,7 @@
         <v>359</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>829</v>
@@ -10886,8 +11058,8 @@
       <c r="P130" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="Q130" s="4" t="s">
-        <v>1074</v>
+      <c r="Q130" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -10901,7 +11073,7 @@
         <v>218</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>784</v>
@@ -10912,8 +11084,8 @@
       <c r="G131" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H131" s="4" t="s">
-        <v>1075</v>
+      <c r="H131" s="2" t="s">
+        <v>1111</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1" t="s">
@@ -10926,7 +11098,7 @@
         <v>70</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>832</v>
@@ -10937,8 +11109,8 @@
       <c r="P131" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="Q131" s="4" t="s">
-        <v>1074</v>
+      <c r="Q131" s="2" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -10952,7 +11124,7 @@
         <v>695</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>787</v>
@@ -10963,8 +11135,8 @@
       <c r="G132" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="H132" s="4" t="s">
-        <v>1075</v>
+      <c r="H132" s="2" t="s">
+        <v>1116</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1" t="s">
@@ -10977,7 +11149,7 @@
         <v>76</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="N132" s="1" t="s">
         <v>835</v>
@@ -10988,8 +11160,8 @@
       <c r="P132" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="Q132" s="4" t="s">
-        <v>1074</v>
+      <c r="Q132" s="2" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -11003,7 +11175,7 @@
         <v>630</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>254</v>
@@ -11014,8 +11186,8 @@
       <c r="G133" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="H133" s="4" t="s">
-        <v>1075</v>
+      <c r="H133" s="2" t="s">
+        <v>1100</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1" t="s">
@@ -11028,7 +11200,7 @@
         <v>752</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N133" s="1" t="s">
         <v>25</v>
@@ -11039,8 +11211,8 @@
       <c r="P133" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="Q133" s="4" t="s">
-        <v>1074</v>
+      <c r="Q133" s="2" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -11054,7 +11226,7 @@
         <v>565</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>257</v>
@@ -11065,8 +11237,8 @@
       <c r="G134" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H134" s="4" t="s">
-        <v>1075</v>
+      <c r="H134" s="2" t="s">
+        <v>1116</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1" t="s">
@@ -11079,7 +11251,7 @@
         <v>756</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="N134" s="1" t="s">
         <v>30</v>
@@ -11090,8 +11262,8 @@
       <c r="P134" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="Q134" s="4" t="s">
-        <v>1074</v>
+      <c r="Q134" s="2" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -11105,7 +11277,7 @@
         <v>270</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>209</v>
@@ -11116,8 +11288,8 @@
       <c r="G135" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H135" s="4" t="s">
-        <v>1075</v>
+      <c r="H135" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="1" t="s">
@@ -11130,7 +11302,7 @@
         <v>507</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>839</v>
@@ -11141,8 +11313,8 @@
       <c r="P135" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q135" s="4" t="s">
-        <v>1074</v>
+      <c r="Q135" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -11156,7 +11328,7 @@
         <v>275</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>601</v>
@@ -11167,8 +11339,8 @@
       <c r="G136" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H136" s="4" t="s">
-        <v>1075</v>
+      <c r="H136" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1" t="s">
@@ -11181,7 +11353,7 @@
         <v>594</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>840</v>
@@ -11192,8 +11364,8 @@
       <c r="P136" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="Q136" s="4" t="s">
-        <v>1074</v>
+      <c r="Q136" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -11207,7 +11379,7 @@
         <v>796</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>543</v>
@@ -11218,8 +11390,8 @@
       <c r="G137" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>1075</v>
+      <c r="H137" s="2" t="s">
+        <v>1114</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1" t="s">
@@ -11232,7 +11404,7 @@
         <v>207</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>843</v>
@@ -11243,8 +11415,8 @@
       <c r="P137" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="Q137" s="4" t="s">
-        <v>1074</v>
+      <c r="Q137" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -11258,7 +11430,7 @@
         <v>797</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>786</v>
@@ -11269,8 +11441,8 @@
       <c r="G138" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H138" s="4" t="s">
-        <v>1075</v>
+      <c r="H138" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1" t="s">
@@ -11283,7 +11455,7 @@
         <v>212</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>846</v>
@@ -11294,8 +11466,8 @@
       <c r="P138" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="Q138" s="4" t="s">
-        <v>1074</v>
+      <c r="Q138" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -11309,7 +11481,7 @@
         <v>218</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>270</v>
@@ -11320,8 +11492,8 @@
       <c r="G139" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="H139" s="4" t="s">
-        <v>1075</v>
+      <c r="H139" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1" t="s">
@@ -11334,7 +11506,7 @@
         <v>270</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>850</v>
@@ -11345,8 +11517,8 @@
       <c r="P139" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Q139" s="4" t="s">
-        <v>1074</v>
+      <c r="Q139" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -11360,7 +11532,7 @@
         <v>695</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>275</v>
@@ -11371,8 +11543,8 @@
       <c r="G140" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H140" s="4" t="s">
-        <v>1075</v>
+      <c r="H140" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1" t="s">
@@ -11385,7 +11557,7 @@
         <v>853</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>854</v>
@@ -11396,8 +11568,8 @@
       <c r="P140" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="Q140" s="4" t="s">
-        <v>1074</v>
+      <c r="Q140" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -11411,7 +11583,7 @@
         <v>507</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>69</v>
@@ -11422,8 +11594,8 @@
       <c r="G141" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="H141" s="4" t="s">
-        <v>1075</v>
+      <c r="H141" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1" t="s">
@@ -11436,7 +11608,7 @@
         <v>543</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N141" s="1" t="s">
         <v>857</v>
@@ -11447,8 +11619,8 @@
       <c r="P141" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q141" s="4" t="s">
-        <v>1074</v>
+      <c r="Q141" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -11462,7 +11634,7 @@
         <v>594</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>748</v>
@@ -11473,8 +11645,8 @@
       <c r="G142" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>1075</v>
+      <c r="H142" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1" t="s">
@@ -11487,7 +11659,7 @@
         <v>859</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N142" s="1" t="s">
         <v>860</v>
@@ -11498,8 +11670,8 @@
       <c r="P142" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="Q142" s="4" t="s">
-        <v>1074</v>
+      <c r="Q142" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -11513,7 +11685,7 @@
         <v>540</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>681</v>
@@ -11524,8 +11696,8 @@
       <c r="G143" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>1075</v>
+      <c r="H143" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1" t="s">
@@ -11538,7 +11710,7 @@
         <v>450</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>256</v>
@@ -11549,8 +11721,8 @@
       <c r="P143" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="Q143" s="4" t="s">
-        <v>1074</v>
+      <c r="Q143" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -11564,7 +11736,7 @@
         <v>544</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>685</v>
@@ -11575,8 +11747,8 @@
       <c r="G144" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="H144" s="4" t="s">
-        <v>1075</v>
+      <c r="H144" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1" t="s">
@@ -11589,7 +11761,7 @@
         <v>864</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>865</v>
@@ -11600,8 +11772,8 @@
       <c r="P144" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="Q144" s="4" t="s">
-        <v>1074</v>
+      <c r="Q144" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -11615,7 +11787,7 @@
         <v>867</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>94</v>
@@ -11626,8 +11798,8 @@
       <c r="G145" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="H145" s="4" t="s">
-        <v>1075</v>
+      <c r="H145" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1" t="s">
@@ -11640,7 +11812,7 @@
         <v>942</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N145" s="1" t="s">
         <v>428</v>
@@ -11651,8 +11823,8 @@
       <c r="P145" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Q145" s="4" t="s">
-        <v>1074</v>
+      <c r="Q145" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -11666,7 +11838,7 @@
         <v>871</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>97</v>
@@ -11677,8 +11849,8 @@
       <c r="G146" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>1075</v>
+      <c r="H146" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1" t="s">
@@ -11691,7 +11863,7 @@
         <v>944</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>432</v>
@@ -11702,8 +11874,8 @@
       <c r="P146" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Q146" s="4" t="s">
-        <v>1074</v>
+      <c r="Q146" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -11717,7 +11889,7 @@
         <v>875</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>603</v>
@@ -11728,8 +11900,8 @@
       <c r="G147" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H147" s="4" t="s">
-        <v>1075</v>
+      <c r="H147" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1" t="s">
@@ -11742,7 +11914,7 @@
         <v>946</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>477</v>
@@ -11753,8 +11925,8 @@
       <c r="P147" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="Q147" s="4" t="s">
-        <v>1074</v>
+      <c r="Q147" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -11768,7 +11940,7 @@
         <v>877</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>666</v>
@@ -11779,8 +11951,8 @@
       <c r="G148" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H148" s="4" t="s">
-        <v>1075</v>
+      <c r="H148" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1" t="s">
@@ -11793,7 +11965,7 @@
         <v>948</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>419</v>
@@ -11804,8 +11976,8 @@
       <c r="P148" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="Q148" s="4" t="s">
-        <v>1074</v>
+      <c r="Q148" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -11819,7 +11991,7 @@
         <v>880</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>477</v>
@@ -11830,8 +12002,8 @@
       <c r="G149" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H149" s="4" t="s">
-        <v>1075</v>
+      <c r="H149" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1" t="s">
@@ -11844,7 +12016,7 @@
         <v>106</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>661</v>
@@ -11855,8 +12027,8 @@
       <c r="P149" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="Q149" s="4" t="s">
-        <v>1074</v>
+      <c r="Q149" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -11870,7 +12042,7 @@
         <v>883</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>419</v>
@@ -11881,8 +12053,8 @@
       <c r="G150" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>1075</v>
+      <c r="H150" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1" t="s">
@@ -11895,7 +12067,7 @@
         <v>110</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N150" s="1" t="s">
         <v>798</v>
@@ -11906,8 +12078,8 @@
       <c r="P150" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="Q150" s="4" t="s">
-        <v>1074</v>
+      <c r="Q150" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="151" spans="1:17">
@@ -11921,7 +12093,7 @@
         <v>507</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>56</v>
@@ -11932,8 +12104,8 @@
       <c r="G151" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="H151" s="4" t="s">
-        <v>1075</v>
+      <c r="H151" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1" t="s">
@@ -11946,7 +12118,7 @@
         <v>955</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>101</v>
@@ -11957,8 +12129,8 @@
       <c r="P151" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="Q151" s="4" t="s">
-        <v>1074</v>
+      <c r="Q151" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -11972,7 +12144,7 @@
         <v>889</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>61</v>
@@ -11983,8 +12155,8 @@
       <c r="G152" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="H152" s="4" t="s">
-        <v>1075</v>
+      <c r="H152" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1" t="s">
@@ -11997,7 +12169,7 @@
         <v>958</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>104</v>
@@ -12008,8 +12180,8 @@
       <c r="P152" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Q152" s="4" t="s">
-        <v>1074</v>
+      <c r="Q152" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="153" spans="1:17">
@@ -12023,7 +12195,7 @@
         <v>893</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>894</v>
@@ -12034,8 +12206,8 @@
       <c r="G153" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="H153" s="4" t="s">
-        <v>1075</v>
+      <c r="H153" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1" t="s">
@@ -12048,7 +12220,7 @@
         <v>608</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>346</v>
@@ -12059,8 +12231,8 @@
       <c r="P153" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="Q153" s="4" t="s">
-        <v>1074</v>
+      <c r="Q153" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -12074,7 +12246,7 @@
         <v>898</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>899</v>
@@ -12085,8 +12257,8 @@
       <c r="G154" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="H154" s="4" t="s">
-        <v>1075</v>
+      <c r="H154" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1" t="s">
@@ -12099,7 +12271,7 @@
         <v>962</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>351</v>
@@ -12110,8 +12282,8 @@
       <c r="P154" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="Q154" s="4" t="s">
-        <v>1074</v>
+      <c r="Q154" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="155" spans="1:17">
@@ -12125,7 +12297,7 @@
         <v>292</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>887</v>
@@ -12136,8 +12308,8 @@
       <c r="G155" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="H155" s="4" t="s">
-        <v>1075</v>
+      <c r="H155" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1" t="s">
@@ -12150,7 +12322,7 @@
         <v>964</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>965</v>
@@ -12161,8 +12333,8 @@
       <c r="P155" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="Q155" s="4" t="s">
-        <v>1074</v>
+      <c r="Q155" s="2" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="156" spans="1:17">
@@ -12176,7 +12348,7 @@
         <v>426</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>890</v>
@@ -12187,8 +12359,8 @@
       <c r="G156" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="H156" s="4" t="s">
-        <v>1075</v>
+      <c r="H156" s="2" t="s">
+        <v>1116</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1" t="s">
@@ -12201,7 +12373,7 @@
         <v>968</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>969</v>
@@ -12212,8 +12384,8 @@
       <c r="P156" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="Q156" s="4" t="s">
-        <v>1074</v>
+      <c r="Q156" s="2" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -12227,7 +12399,7 @@
         <v>291</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>905</v>
@@ -12238,8 +12410,8 @@
       <c r="G157" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H157" s="4" t="s">
-        <v>1075</v>
+      <c r="H157" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1" t="s">
@@ -12252,7 +12424,7 @@
         <v>115</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>866</v>
@@ -12263,8 +12435,8 @@
       <c r="P157" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q157" s="4" t="s">
-        <v>1074</v>
+      <c r="Q157" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="158" spans="1:17">
@@ -12278,7 +12450,7 @@
         <v>569</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>908</v>
@@ -12289,8 +12461,8 @@
       <c r="G158" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="H158" s="4" t="s">
-        <v>1075</v>
+      <c r="H158" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1" t="s">
@@ -12303,7 +12475,7 @@
         <v>119</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>972</v>
@@ -12314,8 +12486,8 @@
       <c r="P158" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="Q158" s="4" t="s">
-        <v>1074</v>
+      <c r="Q158" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -12329,7 +12501,7 @@
         <v>24</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>911</v>
@@ -12340,8 +12512,8 @@
       <c r="G159" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="H159" s="4" t="s">
-        <v>1075</v>
+      <c r="H159" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1" t="s">
@@ -12354,7 +12526,7 @@
         <v>955</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N159" s="1" t="s">
         <v>101</v>
@@ -12365,8 +12537,8 @@
       <c r="P159" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q159" s="4" t="s">
-        <v>1074</v>
+      <c r="Q159" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -12380,7 +12552,7 @@
         <v>29</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>913</v>
@@ -12391,8 +12563,8 @@
       <c r="G160" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="H160" s="4" t="s">
-        <v>1075</v>
+      <c r="H160" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="1" t="s">
@@ -12405,7 +12577,7 @@
         <v>958</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N160" s="1" t="s">
         <v>104</v>
@@ -12416,8 +12588,8 @@
       <c r="P160" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="Q160" s="4" t="s">
-        <v>1074</v>
+      <c r="Q160" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="161" spans="1:17">
@@ -12431,7 +12603,7 @@
         <v>916</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>917</v>
@@ -12442,8 +12614,8 @@
       <c r="G161" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="H161" s="4" t="s">
-        <v>1075</v>
+      <c r="H161" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="1" t="s">
@@ -12456,7 +12628,7 @@
         <v>159</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>139</v>
@@ -12467,8 +12639,8 @@
       <c r="P161" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q161" s="4" t="s">
-        <v>1074</v>
+      <c r="Q161" s="2" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="162" spans="1:17">
@@ -12482,7 +12654,7 @@
         <v>920</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>921</v>
@@ -12493,8 +12665,8 @@
       <c r="G162" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="H162" s="4" t="s">
-        <v>1075</v>
+      <c r="H162" s="2" t="s">
+        <v>1100</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1" t="s">
@@ -12507,7 +12679,7 @@
         <v>164</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="N162" s="1" t="s">
         <v>144</v>
@@ -12518,8 +12690,8 @@
       <c r="P162" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="Q162" s="4" t="s">
-        <v>1074</v>
+      <c r="Q162" s="2" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="163" spans="1:17">
@@ -12533,7 +12705,7 @@
         <v>926</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>56</v>
@@ -12544,8 +12716,8 @@
       <c r="G163" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="H163" s="4" t="s">
-        <v>1075</v>
+      <c r="H163" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1" t="s">
@@ -12558,7 +12730,7 @@
         <v>159</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="N163" s="1" t="s">
         <v>139</v>
@@ -12569,8 +12741,8 @@
       <c r="P163" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Q163" s="4" t="s">
-        <v>1074</v>
+      <c r="Q163" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="164" spans="1:17">
@@ -12584,7 +12756,7 @@
         <v>930</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>61</v>
@@ -12595,8 +12767,8 @@
       <c r="G164" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="H164" s="4" t="s">
-        <v>1075</v>
+      <c r="H164" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1" t="s">
@@ -12609,7 +12781,7 @@
         <v>164</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>144</v>
@@ -12620,8 +12792,8 @@
       <c r="P164" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="Q164" s="4" t="s">
-        <v>1074</v>
+      <c r="Q164" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="165" spans="1:17">
@@ -12635,7 +12807,7 @@
         <v>857</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>917</v>
@@ -12646,8 +12818,8 @@
       <c r="G165" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="H165" s="4" t="s">
-        <v>1075</v>
+      <c r="H165" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1" t="s">
@@ -12660,7 +12832,7 @@
         <v>328</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N165" s="1" t="s">
         <v>123</v>
@@ -12671,8 +12843,8 @@
       <c r="P165" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Q165" s="4" t="s">
-        <v>1074</v>
+      <c r="Q165" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="166" spans="1:17">
@@ -12686,7 +12858,7 @@
         <v>935</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>921</v>
@@ -12697,8 +12869,8 @@
       <c r="G166" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="H166" s="4" t="s">
-        <v>1075</v>
+      <c r="H166" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1" t="s">
@@ -12711,7 +12883,7 @@
         <v>984</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="N166" s="1" t="s">
         <v>127</v>
@@ -12722,8 +12894,8 @@
       <c r="P166" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="Q166" s="4" t="s">
-        <v>1074</v>
+      <c r="Q166" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="167" spans="1:17">
@@ -12737,7 +12909,7 @@
         <v>938</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>661</v>
@@ -12748,8 +12920,8 @@
       <c r="G167" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H167" s="4" t="s">
-        <v>1075</v>
+      <c r="H167" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1" t="s">
@@ -12762,7 +12934,7 @@
         <v>56</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N167" s="1" t="s">
         <v>150</v>
@@ -12773,8 +12945,8 @@
       <c r="P167" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q167" s="4" t="s">
-        <v>1074</v>
+      <c r="Q167" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="168" spans="1:17">
@@ -12788,7 +12960,7 @@
         <v>939</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>798</v>
@@ -12799,8 +12971,8 @@
       <c r="G168" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="H168" s="4" t="s">
-        <v>1075</v>
+      <c r="H168" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1" t="s">
@@ -12813,7 +12985,7 @@
         <v>61</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N168" s="1" t="s">
         <v>155</v>
@@ -12824,8 +12996,8 @@
       <c r="P168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q168" s="4" t="s">
-        <v>1074</v>
+      <c r="Q168" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="169" spans="1:17">
@@ -12839,7 +13011,7 @@
         <v>58</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>139</v>
@@ -12850,8 +13022,8 @@
       <c r="G169" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="H169" s="4" t="s">
-        <v>1075</v>
+      <c r="H169" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1" t="s">
@@ -12864,7 +13036,7 @@
         <v>56</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N169" s="1" t="s">
         <v>55</v>
@@ -12875,8 +13047,8 @@
       <c r="P169" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="Q169" s="4" t="s">
-        <v>1074</v>
+      <c r="Q169" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="170" spans="1:17">
@@ -12890,7 +13062,7 @@
         <v>990</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>144</v>
@@ -12901,8 +13073,8 @@
       <c r="G170" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="H170" s="4" t="s">
-        <v>1075</v>
+      <c r="H170" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1" t="s">
@@ -12915,7 +13087,7 @@
         <v>61</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="N170" s="1" t="s">
         <v>28</v>
@@ -12926,8 +13098,8 @@
       <c r="P170" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="Q170" s="4" t="s">
-        <v>1074</v>
+      <c r="Q170" s="2" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="171" spans="1:17">
@@ -12941,7 +13113,7 @@
         <v>249</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1073</v>
+        <v>1117</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>139</v>
@@ -12952,8 +13124,8 @@
       <c r="G171" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="H171" s="4" t="s">
-        <v>1075</v>
+      <c r="H171" s="2" t="s">
+        <v>1115</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1" t="s">
@@ -12966,7 +13138,7 @@
         <v>56</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N171" s="1" t="s">
         <v>1040</v>
@@ -12977,8 +13149,8 @@
       <c r="P171" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Q171" s="4" t="s">
-        <v>1074</v>
+      <c r="Q171" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="172" spans="1:17">
@@ -12992,7 +13164,7 @@
         <v>996</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>144</v>
@@ -13003,8 +13175,8 @@
       <c r="G172" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="H172" s="4" t="s">
-        <v>1075</v>
+      <c r="H172" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1" t="s">
@@ -13017,7 +13189,7 @@
         <v>61</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>1041</v>
@@ -13028,8 +13200,8 @@
       <c r="P172" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Q172" s="4" t="s">
-        <v>1074</v>
+      <c r="Q172" s="2" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="173" spans="1:17">
@@ -13043,7 +13215,7 @@
         <v>78</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>887</v>
@@ -13054,8 +13226,8 @@
       <c r="G173" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="H173" s="4" t="s">
-        <v>1075</v>
+      <c r="H173" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1" t="s">
@@ -13068,7 +13240,7 @@
         <v>224</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>238</v>
@@ -13079,8 +13251,8 @@
       <c r="P173" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="Q173" s="4" t="s">
-        <v>1074</v>
+      <c r="Q173" s="2" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="174" spans="1:17">
@@ -13094,7 +13266,7 @@
         <v>83</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>890</v>
@@ -13105,8 +13277,8 @@
       <c r="G174" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="H174" s="4" t="s">
-        <v>1075</v>
+      <c r="H174" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1" t="s">
@@ -13119,7 +13291,7 @@
         <v>227</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>633</v>
@@ -13130,8 +13302,8 @@
       <c r="P174" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="Q174" s="4" t="s">
-        <v>1074</v>
+      <c r="Q174" s="2" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="175" spans="1:17">
@@ -13145,7 +13317,7 @@
         <v>78</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>150</v>
@@ -13156,8 +13328,8 @@
       <c r="G175" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="H175" s="4" t="s">
-        <v>1075</v>
+      <c r="H175" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1" t="s">
@@ -13170,7 +13342,7 @@
         <v>955</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>1048</v>
@@ -13181,8 +13353,8 @@
       <c r="P175" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q175" s="4" t="s">
-        <v>1074</v>
+      <c r="Q175" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="176" spans="1:17">
@@ -13196,7 +13368,7 @@
         <v>83</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>155</v>
@@ -13207,8 +13379,8 @@
       <c r="G176" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>1075</v>
+      <c r="H176" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1" t="s">
@@ -13221,7 +13393,7 @@
         <v>1050</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>1051</v>
@@ -13232,8 +13404,8 @@
       <c r="P176" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q176" s="4" t="s">
-        <v>1074</v>
+      <c r="Q176" s="2" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="177" spans="1:17">
@@ -13247,7 +13419,7 @@
         <v>1007</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>70</v>
@@ -13258,8 +13430,8 @@
       <c r="G177" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H177" s="4" t="s">
-        <v>1075</v>
+      <c r="H177" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1" t="s">
@@ -13272,7 +13444,7 @@
         <v>1052</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>329</v>
@@ -13283,8 +13455,8 @@
       <c r="P177" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="Q177" s="4" t="s">
-        <v>1074</v>
+      <c r="Q177" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="178" spans="1:17">
@@ -13298,7 +13470,7 @@
         <v>1009</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>76</v>
@@ -13309,8 +13481,8 @@
       <c r="G178" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H178" s="4" t="s">
-        <v>1075</v>
+      <c r="H178" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1" t="s">
@@ -13323,7 +13495,7 @@
         <v>1054</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>1055</v>
@@ -13334,8 +13506,8 @@
       <c r="P178" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="Q178" s="4" t="s">
-        <v>1074</v>
+      <c r="Q178" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="179" spans="1:17">
@@ -13349,7 +13521,7 @@
         <v>399</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>514</v>
@@ -13360,8 +13532,8 @@
       <c r="G179" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="H179" s="4" t="s">
-        <v>1075</v>
+      <c r="H179" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1" t="s">
@@ -13374,7 +13546,7 @@
         <v>78</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>270</v>
@@ -13385,8 +13557,8 @@
       <c r="P179" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="Q179" s="4" t="s">
-        <v>1074</v>
+      <c r="Q179" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="180" spans="1:17">
@@ -13400,7 +13572,7 @@
         <v>1015</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>517</v>
@@ -13411,8 +13583,8 @@
       <c r="G180" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="H180" s="4" t="s">
-        <v>1075</v>
+      <c r="H180" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1" t="s">
@@ -13425,7 +13597,7 @@
         <v>83</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N180" s="1" t="s">
         <v>275</v>
@@ -13436,8 +13608,8 @@
       <c r="P180" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="Q180" s="4" t="s">
-        <v>1074</v>
+      <c r="Q180" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="181" spans="1:17">
@@ -13451,7 +13623,7 @@
         <v>387</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>356</v>
@@ -13462,8 +13634,8 @@
       <c r="G181" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H181" s="4" t="s">
-        <v>1075</v>
+      <c r="H181" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1" t="s">
@@ -13476,7 +13648,7 @@
         <v>78</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="N181" s="1" t="s">
         <v>108</v>
@@ -13487,8 +13659,8 @@
       <c r="P181" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="Q181" s="4" t="s">
-        <v>1074</v>
+      <c r="Q181" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="182" spans="1:17">
@@ -13502,7 +13674,7 @@
         <v>391</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>360</v>
@@ -13513,8 +13685,8 @@
       <c r="G182" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="H182" s="4" t="s">
-        <v>1075</v>
+      <c r="H182" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1" t="s">
@@ -13527,7 +13699,7 @@
         <v>83</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N182" s="1" t="s">
         <v>1061</v>
@@ -13538,8 +13710,8 @@
       <c r="P182" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Q182" s="4" t="s">
-        <v>1074</v>
+      <c r="Q182" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="183" spans="1:17">
@@ -13553,7 +13725,7 @@
         <v>56</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>901</v>
@@ -13564,8 +13736,8 @@
       <c r="G183" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H183" s="4" t="s">
-        <v>1075</v>
+      <c r="H183" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1" t="s">
@@ -13578,7 +13750,7 @@
         <v>381</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="N183" s="1" t="s">
         <v>592</v>
@@ -13589,8 +13761,8 @@
       <c r="P183" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q183" s="4" t="s">
-        <v>1074</v>
+      <c r="Q183" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="184" spans="1:17">
@@ -13604,7 +13776,7 @@
         <v>61</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>903</v>
@@ -13615,8 +13787,8 @@
       <c r="G184" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="H184" s="4" t="s">
-        <v>1075</v>
+      <c r="H184" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1" t="s">
@@ -13629,7 +13801,7 @@
         <v>1064</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N184" s="1" t="s">
         <v>1065</v>
@@ -13640,8 +13812,8 @@
       <c r="P184" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="Q184" s="4" t="s">
-        <v>1074</v>
+      <c r="Q184" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="185" spans="1:17">
@@ -13655,7 +13827,7 @@
         <v>207</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>69</v>
@@ -13666,8 +13838,8 @@
       <c r="G185" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H185" s="4" t="s">
-        <v>1075</v>
+      <c r="H185" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1" t="s">
@@ -13680,7 +13852,7 @@
         <v>1068</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>1073</v>
+        <v>1117</v>
       </c>
       <c r="N185" s="1" t="s">
         <v>101</v>
@@ -13691,8 +13863,8 @@
       <c r="P185" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="Q185" s="4" t="s">
-        <v>1074</v>
+      <c r="Q185" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -13706,7 +13878,7 @@
         <v>212</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>1020</v>
@@ -13717,8 +13889,8 @@
       <c r="G186" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="H186" s="4" t="s">
-        <v>1075</v>
+      <c r="H186" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1" t="s">
@@ -13731,7 +13903,7 @@
         <v>1070</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="N186" s="1" t="s">
         <v>104</v>
@@ -13742,8 +13914,8 @@
       <c r="P186" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="Q186" s="4" t="s">
-        <v>1074</v>
+      <c r="Q186" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="187" spans="1:17">
@@ -13757,7 +13929,7 @@
         <v>694</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1073</v>
+        <v>1117</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>58</v>
@@ -13768,8 +13940,8 @@
       <c r="G187" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H187" s="4" t="s">
-        <v>1075</v>
+      <c r="H187" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -13791,7 +13963,7 @@
         <v>1026</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>314</v>
@@ -13802,8 +13974,8 @@
       <c r="G188" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="H188" s="4" t="s">
-        <v>1075</v>
+      <c r="H188" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
@@ -13825,7 +13997,7 @@
         <v>56</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>107</v>
@@ -13836,8 +14008,8 @@
       <c r="G189" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H189" s="4" t="s">
-        <v>1075</v>
+      <c r="H189" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
@@ -13859,7 +14031,7 @@
         <v>61</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>1029</v>
@@ -13870,8 +14042,8 @@
       <c r="G190" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H190" s="4" t="s">
-        <v>1075</v>
+      <c r="H190" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="I190" s="3"/>
     </row>
@@ -13886,7 +14058,7 @@
         <v>450</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>541</v>
@@ -13897,8 +14069,8 @@
       <c r="G191" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="H191" s="4" t="s">
-        <v>1075</v>
+      <c r="H191" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I191" s="3"/>
     </row>
@@ -13913,7 +14085,7 @@
         <v>1035</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>1036</v>
@@ -13924,199 +14096,199 @@
       <c r="G192" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="H192" s="4" t="s">
-        <v>1075</v>
+      <c r="H192" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="I192" s="3"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
